--- a/AAII_Financials/Yearly/SWM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWM_YR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,141 +662,153 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43100</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42735</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42369</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42004</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>41639</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41274</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>40908</v>
       </c>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1022800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1041300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>982100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>839900</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>764100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>794300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>772800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>778500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>801000</v>
       </c>
-      <c r="L8" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>732800</v>
+      </c>
+      <c r="E9" s="3">
         <v>762800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>698700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>582000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>539700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>575500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>520100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>519000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>562100</v>
       </c>
-      <c r="L9" s="3"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>290000</v>
+      </c>
+      <c r="E10" s="3">
         <v>278500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>283400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>257900</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>224400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>218800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>252700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>259500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>238900</v>
       </c>
-      <c r="L10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,38 +821,42 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13500</v>
+      </c>
+      <c r="E12" s="3">
         <v>15200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>17800</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17500</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>14000</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>15700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15300</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>9900</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9300</v>
       </c>
-      <c r="L12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -868,39 +884,45 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-      <c r="L13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E14" s="3">
         <v>1700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>8100</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>25600</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>14600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>13100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>41300</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>21400</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>14000</v>
       </c>
-      <c r="L14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -928,9 +950,12 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-      <c r="L15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+      <c r="M15" s="3"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -940,68 +965,75 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>888800</v>
+      </c>
+      <c r="E17" s="3">
         <v>906300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>853800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>729900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>661100</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>688200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>647900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>626800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>682000</v>
       </c>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3"/>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>134000</v>
+      </c>
+      <c r="E18" s="3">
         <v>135000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>128300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>110000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>103000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>106100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>124900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>151700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>119000</v>
       </c>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1014,158 +1046,174 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E20" s="3">
         <v>10000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>25800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>16000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>11700</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>9300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>5700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4600</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>190700</v>
+      </c>
+      <c r="E21" s="3">
         <v>206600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>213600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>170500</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>155700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>160500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>167900</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>194800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>162200</v>
       </c>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3"/>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E22" s="3">
         <v>28200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>52600</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>32600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>9200</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>7200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>2900</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>6700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>5200</v>
       </c>
-      <c r="L22" s="3"/>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3"/>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>96900</v>
+      </c>
+      <c r="E23" s="3">
         <v>116800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>101500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>93400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>105500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>108200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>127700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>149600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>113900</v>
       </c>
-      <c r="L23" s="3"/>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3"/>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>15900</v>
+      </c>
+      <c r="E24" s="3">
         <v>22300</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>18200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15400</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>21600</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>20500</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>53000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>49500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>30800</v>
       </c>
-      <c r="L24" s="3"/>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3"/>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1193,69 +1241,78 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-      <c r="L25" s="3"/>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3"/>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E26" s="3">
         <v>94500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>83300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>78000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83900</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>87700</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>74700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>100100</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>83100</v>
       </c>
-      <c r="L26" s="3"/>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3"/>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>84500</v>
+      </c>
+      <c r="E27" s="3">
         <v>82900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>85400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>90000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>88900</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>77900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>103000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>86600</v>
       </c>
-      <c r="L27" s="3"/>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3"/>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1283,39 +1340,45 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-      <c r="L28" s="3"/>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3"/>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>700</v>
+      </c>
+      <c r="E29" s="3">
         <v>11300</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-51300</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
         <v>-800</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-2400</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-24300</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>4800</v>
       </c>
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3"/>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1343,9 +1406,12 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3"/>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1373,69 +1439,78 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3"/>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-10000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-25800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-16000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-11700</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-9300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-5700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4600</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3"/>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E33" s="3">
         <v>94200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>34100</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>82300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>89200</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>88900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>75500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>78700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>91400</v>
       </c>
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3"/>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1463,74 +1538,83 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3"/>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E35" s="3">
         <v>94200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>34100</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>82300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>89200</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>88900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>75500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>78700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>91400</v>
       </c>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3"/>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43100</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42735</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42369</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42004</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>41639</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41274</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>40908</v>
       </c>
-      <c r="L38" s="2"/>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2"/>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1543,8 +1627,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1557,38 +1642,42 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E41" s="3">
         <v>93800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>106900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>107400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>186500</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>290300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>272000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>151200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>76500</v>
       </c>
-      <c r="L41" s="3"/>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1616,219 +1705,243 @@
       <c r="K42" s="3">
         <v>0</v>
       </c>
-      <c r="L42" s="3"/>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3"/>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>150800</v>
+      </c>
+      <c r="E43" s="3">
         <v>162600</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>148000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>114100</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>118600</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>105000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>225100</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>95000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>113500</v>
       </c>
-      <c r="L43" s="3"/>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3"/>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>161400</v>
+      </c>
+      <c r="E44" s="3">
         <v>151500</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>155200</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>119400</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>112400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>108400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>132800</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>111600</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>113800</v>
       </c>
-      <c r="L44" s="3"/>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3"/>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>12300</v>
+      </c>
+      <c r="E45" s="3">
         <v>21300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>23000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>15700</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>24200</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>23200</v>
       </c>
-      <c r="L45" s="3"/>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3"/>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>427500</v>
+      </c>
+      <c r="E46" s="3">
         <v>429200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>433100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>364300</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>444800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>519400</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>537100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>382000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>327000</v>
       </c>
-      <c r="L46" s="3"/>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3"/>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>52400</v>
+      </c>
+      <c r="E47" s="3">
         <v>53100</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>70900</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>66300</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>70100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>70300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>66200</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>65100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>42600</v>
       </c>
-      <c r="L47" s="3"/>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3"/>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>351200</v>
+      </c>
+      <c r="E48" s="3">
         <v>340300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>361900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>307400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>308100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>362000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>786400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>401400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>428800</v>
       </c>
-      <c r="L48" s="3"/>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3"/>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>600500</v>
+      </c>
+      <c r="E49" s="3">
         <v>619200</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>645900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>411400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>449700</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>219200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>208800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>17500</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>29900</v>
       </c>
-      <c r="L49" s="3"/>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3"/>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1856,9 +1969,12 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-      <c r="L50" s="3"/>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3"/>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -1886,39 +2002,45 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-      <c r="L51" s="3"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3"/>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>40100</v>
+      </c>
+      <c r="E52" s="3">
         <v>24700</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>30700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>17300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>14100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>52600</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>20700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>54300</v>
       </c>
-      <c r="L52" s="3"/>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3"/>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -1946,39 +2068,45 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-      <c r="L53" s="3"/>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3"/>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1471700</v>
+      </c>
+      <c r="E54" s="3">
         <v>1466500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1542500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1173700</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1290000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1185000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1226800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>886700</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>845200</v>
       </c>
-      <c r="L54" s="3"/>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3"/>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -1991,8 +2119,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2005,188 +2134,207 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>66400</v>
+      </c>
+      <c r="E57" s="3">
         <v>65700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>59400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>50300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>49000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>44800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>45600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>53700</v>
       </c>
-      <c r="L57" s="3"/>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3"/>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E58" s="3">
         <v>3300</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5100</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3300</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>2300</v>
-      </c>
-      <c r="I58" s="3">
-        <v>4200</v>
       </c>
       <c r="J58" s="3">
         <v>4200</v>
       </c>
       <c r="K58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="L58" s="3">
         <v>5000</v>
       </c>
-      <c r="L58" s="3"/>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3"/>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>89300</v>
+      </c>
+      <c r="E59" s="3">
         <v>74500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>82600</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>82500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>90800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>76400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>178900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>77100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>82100</v>
       </c>
-      <c r="L59" s="3"/>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3"/>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>157600</v>
+      </c>
+      <c r="E60" s="3">
         <v>143500</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>147100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>135800</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>143100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>123500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>146300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>126900</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>140800</v>
       </c>
-      <c r="L60" s="3"/>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3"/>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>540800</v>
+      </c>
+      <c r="E61" s="3">
         <v>618800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>679100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>437400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>568200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>435600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>381200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>151800</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>141000</v>
       </c>
-      <c r="L61" s="3"/>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3"/>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>175600</v>
+      </c>
+      <c r="E62" s="3">
         <v>146300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>169600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>92200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>110800</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>136900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>137900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>96200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>112900</v>
       </c>
-      <c r="L62" s="3"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3"/>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2214,9 +2362,12 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-      <c r="L63" s="3"/>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3"/>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2244,9 +2395,12 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-      <c r="L64" s="3"/>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3"/>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2274,39 +2428,45 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-      <c r="L65" s="3"/>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3"/>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>874000</v>
+      </c>
+      <c r="E66" s="3">
         <v>908600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>995800</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>665400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>822100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>696000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>665400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>374900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>369300</v>
       </c>
-      <c r="L66" s="3"/>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3"/>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2319,8 +2479,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2348,9 +2509,12 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-      <c r="L68" s="3"/>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3"/>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2378,9 +2542,12 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-      <c r="L69" s="3"/>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3"/>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2408,9 +2575,12 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-      <c r="L70" s="3"/>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2438,39 +2608,45 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-      <c r="L71" s="3"/>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3"/>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>638400</v>
+      </c>
+      <c r="E72" s="3">
         <v>608200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>566700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>585300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>552600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>512700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>520000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>483400</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>417000</v>
       </c>
-      <c r="L72" s="3"/>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3"/>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2498,9 +2674,12 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-      <c r="L73" s="3"/>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3"/>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2528,9 +2707,12 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-      <c r="L74" s="3"/>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3"/>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2558,39 +2740,45 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-      <c r="L75" s="3"/>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3"/>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>597700</v>
+      </c>
+      <c r="E76" s="3">
         <v>557900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>546700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>508300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>467900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>489000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>561400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>511800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>475900</v>
       </c>
-      <c r="L76" s="3"/>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3"/>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2618,74 +2806,83 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-      <c r="L77" s="3"/>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3"/>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="E80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43100</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42735</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42369</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42004</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>41639</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41274</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>40908</v>
       </c>
-      <c r="L80" s="2"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>85200</v>
+      </c>
+      <c r="E81" s="3">
         <v>94200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>34100</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>82300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>89200</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>88900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>75500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>78700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>91400</v>
       </c>
-      <c r="L81" s="3"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2698,38 +2895,42 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>57700</v>
+      </c>
+      <c r="E83" s="3">
         <v>61600</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>59500</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>44500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>41000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>45100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>37300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>38500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>43100</v>
       </c>
-      <c r="L83" s="3"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2757,9 +2958,12 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-      <c r="L84" s="3"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2787,9 +2991,12 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-      <c r="L85" s="3"/>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3"/>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -2817,9 +3024,12 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-      <c r="L86" s="3"/>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3"/>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -2847,9 +3057,12 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-      <c r="L87" s="3"/>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3"/>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -2877,39 +3090,45 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-      <c r="L88" s="3"/>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3"/>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>160300</v>
+      </c>
+      <c r="E89" s="3">
         <v>139100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>131000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>129700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>144700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>165900</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>178100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>174600</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>81500</v>
       </c>
-      <c r="L89" s="3"/>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3"/>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -2922,38 +3141,42 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-28600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-27000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-37200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27800</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-24200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-35100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-29100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-27200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-62200</v>
       </c>
-      <c r="L91" s="3"/>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3"/>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -2981,9 +3204,12 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-      <c r="L92" s="3"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3011,39 +3237,45 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-      <c r="L93" s="3"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-14800</v>
+      </c>
+      <c r="E94" s="3">
         <v>-27500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-318500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-22400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-313700</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-253700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-51700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-72100</v>
       </c>
-      <c r="L94" s="3"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3056,38 +3288,42 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-54400</v>
+      </c>
+      <c r="E96" s="3">
         <v>-53200</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-51900</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-49400</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-46900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-44500</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-39500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-14100</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-10100</v>
       </c>
-      <c r="L96" s="3"/>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3"/>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3115,9 +3351,12 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-      <c r="L97" s="3"/>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3"/>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3145,9 +3384,12 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-      <c r="L98" s="3"/>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3"/>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3175,97 +3417,109 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-      <c r="L99" s="3"/>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3"/>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-135800</v>
+      </c>
+      <c r="E100" s="3">
         <v>-120900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>179500</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-185700</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>92400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-39100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>187300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-50600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-18300</v>
       </c>
-      <c r="L100" s="3"/>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3"/>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-500</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-27200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-34000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>9100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>2400</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-1900</v>
       </c>
-      <c r="L101" s="3"/>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3"/>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>9200</v>
+      </c>
+      <c r="E102" s="3">
         <v>-13100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-79100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-103800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>18300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>120800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>74700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-10800</v>
       </c>
-      <c r="L102" s="3"/>
+      <c r="M102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SWM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWM_YR_FIN.xlsx
@@ -653,7 +653,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,153 +662,165 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43465</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>42735</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42369</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42004</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>41639</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41274</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>40908</v>
       </c>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1074400</v>
+      </c>
+      <c r="E8" s="3">
         <v>1022800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1041300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>982100</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>839900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>764100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>794300</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>772800</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>778500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>801000</v>
       </c>
-      <c r="M8" s="3"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>766100</v>
+      </c>
+      <c r="E9" s="3">
         <v>732800</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>762800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>698700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>582000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>539700</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>575500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>520100</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>519000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>562100</v>
       </c>
-      <c r="M9" s="3"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>308300</v>
+      </c>
+      <c r="E10" s="3">
         <v>290000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>278500</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>283400</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>257900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>224400</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>218800</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>252700</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>259500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>238900</v>
       </c>
-      <c r="M10" s="3"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,41 +834,45 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>13800</v>
+      </c>
+      <c r="E12" s="3">
         <v>13500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>15200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>17800</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17500</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>14000</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>15700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15300</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>9900</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9300</v>
       </c>
-      <c r="M12" s="3"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -887,42 +903,48 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-      <c r="M13" s="3"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E14" s="3">
         <v>3700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>1700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>8100</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>25600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>14600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>13100</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>41300</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>21400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>14000</v>
       </c>
-      <c r="M14" s="3"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -953,9 +975,12 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-      <c r="M15" s="3"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -966,74 +991,81 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>945600</v>
+      </c>
+      <c r="E17" s="3">
         <v>888800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>906300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>853800</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>729900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>661100</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>688200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>647900</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>626800</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>682000</v>
       </c>
-      <c r="M17" s="3"/>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3"/>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>128800</v>
+      </c>
+      <c r="E18" s="3">
         <v>134000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>135000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>128300</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>110000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>103000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>106100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>124900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>151700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>119000</v>
       </c>
-      <c r="M18" s="3"/>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3"/>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1047,8 +1079,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
@@ -1056,164 +1089,179 @@
         <v>-1000</v>
       </c>
       <c r="E20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F20" s="3">
         <v>10000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>25800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>16000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>11700</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>9300</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>5700</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>4600</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>100</v>
       </c>
-      <c r="M20" s="3"/>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3"/>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>200000</v>
+      </c>
+      <c r="E21" s="3">
         <v>190700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>206600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>213600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>170500</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>155700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>160500</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>167900</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>194800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>162200</v>
       </c>
-      <c r="M21" s="3"/>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3"/>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E22" s="3">
         <v>36100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>28200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>52600</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>32600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>9200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>7200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>2900</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>6700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>5200</v>
       </c>
-      <c r="M22" s="3"/>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3"/>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>97300</v>
+      </c>
+      <c r="E23" s="3">
         <v>96900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>116800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>101500</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>93400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>105500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>108200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>127700</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>149600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>113900</v>
       </c>
-      <c r="M23" s="3"/>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3"/>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E24" s="3">
         <v>15900</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>22300</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>18200</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>15400</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>21600</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>20500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>53000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>49500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>30800</v>
       </c>
-      <c r="M24" s="3"/>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3"/>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1244,75 +1292,84 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-      <c r="M25" s="3"/>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>78900</v>
+      </c>
+      <c r="E26" s="3">
         <v>81000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>94500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>83300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>78000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>83900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>87700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>74700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>100100</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>83100</v>
       </c>
-      <c r="M26" s="3"/>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3"/>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E27" s="3">
         <v>84500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>82900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>85400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>82300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>90000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>88900</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>77900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>103000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>86600</v>
       </c>
-      <c r="M27" s="3"/>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3"/>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1343,42 +1400,48 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-      <c r="M28" s="3"/>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>700</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>11300</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>-51300</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
       <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
         <v>-800</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
       <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
         <v>-2400</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-24300</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>4800</v>
       </c>
-      <c r="M29" s="3"/>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1409,9 +1472,12 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-      <c r="M30" s="3"/>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1442,9 +1508,12 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-      <c r="M31" s="3"/>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3"/>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
@@ -1452,65 +1521,71 @@
         <v>1000</v>
       </c>
       <c r="E32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F32" s="3">
         <v>-10000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-25800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-16000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-11700</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-9300</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-5700</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-4600</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-100</v>
       </c>
-      <c r="M32" s="3"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E33" s="3">
         <v>85200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>94200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>34100</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>82300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>89200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>88900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>75500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>78700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>91400</v>
       </c>
-      <c r="M33" s="3"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1541,80 +1616,89 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-      <c r="M34" s="3"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E35" s="3">
         <v>85200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>94200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>34100</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>82300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>89200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>88900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>75500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>78700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>91400</v>
       </c>
-      <c r="M35" s="3"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43465</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>42735</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42369</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42004</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>41639</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41274</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>40908</v>
       </c>
-      <c r="M38" s="2"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1628,8 +1712,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1643,41 +1728,45 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>54700</v>
+      </c>
+      <c r="E41" s="3">
         <v>103000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>93800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>106900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>107400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>186500</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>290300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>272000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>151200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>76500</v>
       </c>
-      <c r="M41" s="3"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1708,240 +1797,264 @@
       <c r="L42" s="3">
         <v>0</v>
       </c>
-      <c r="M42" s="3"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>154400</v>
+      </c>
+      <c r="E43" s="3">
         <v>150800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>162600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>148000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>114100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>118600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>105000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>225100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>95000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>113500</v>
       </c>
-      <c r="M43" s="3"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>179700</v>
+      </c>
+      <c r="E44" s="3">
         <v>161400</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>151500</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>155200</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>119400</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>112400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>108400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>132800</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>111600</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>113800</v>
       </c>
-      <c r="M44" s="3"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E45" s="3">
         <v>12300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>21300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>23000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23400</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>15700</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>24200</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>23200</v>
       </c>
-      <c r="M45" s="3"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>396400</v>
+      </c>
+      <c r="E46" s="3">
         <v>427500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>429200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>433100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>364300</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>444800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>519400</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>537100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>382000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>327000</v>
       </c>
-      <c r="M46" s="3"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>59300</v>
+      </c>
+      <c r="E47" s="3">
         <v>52400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>53100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>70900</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>66300</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>70100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>70300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>66200</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>65100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>42600</v>
       </c>
-      <c r="M47" s="3"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>358800</v>
+      </c>
+      <c r="E48" s="3">
         <v>351200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>340300</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>361900</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>307400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>308100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>362000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>786400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>401400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>428800</v>
       </c>
-      <c r="M48" s="3"/>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3"/>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>731300</v>
+      </c>
+      <c r="E49" s="3">
         <v>600500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>619200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>645900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>411400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>449700</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>219200</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>208800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>17500</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>29900</v>
       </c>
-      <c r="M49" s="3"/>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3"/>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1972,9 +2085,12 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-      <c r="M50" s="3"/>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3"/>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2005,42 +2121,48 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-      <c r="M51" s="3"/>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3"/>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>39100</v>
+      </c>
+      <c r="E52" s="3">
         <v>40100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>24700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>30700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>17300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>14100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>52600</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>20700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>54300</v>
       </c>
-      <c r="M52" s="3"/>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3"/>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2071,42 +2193,48 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-      <c r="M53" s="3"/>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3"/>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>1584900</v>
+      </c>
+      <c r="E54" s="3">
         <v>1471700</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1466500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1542500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1173700</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1290000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1185000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1226800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>886700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>845200</v>
       </c>
-      <c r="M54" s="3"/>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3"/>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2120,8 +2248,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2135,206 +2264,225 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>60500</v>
+      </c>
+      <c r="E57" s="3">
         <v>66400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>65700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>59400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>50300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>49000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>44800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>49400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>45600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>53700</v>
       </c>
-      <c r="M57" s="3"/>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3"/>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E58" s="3">
         <v>1900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>3300</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>5100</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>3000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3300</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>2300</v>
-      </c>
-      <c r="J58" s="3">
-        <v>4200</v>
       </c>
       <c r="K58" s="3">
         <v>4200</v>
       </c>
       <c r="L58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="M58" s="3">
         <v>5000</v>
       </c>
-      <c r="M58" s="3"/>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3"/>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>103600</v>
+      </c>
+      <c r="E59" s="3">
         <v>89300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>74500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>82600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>82500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>90800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>76400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>178900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>77100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>82100</v>
       </c>
-      <c r="M59" s="3"/>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3"/>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>166900</v>
+      </c>
+      <c r="E60" s="3">
         <v>157600</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>143500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>147100</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>135800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>143100</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>123500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>146300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>126900</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>140800</v>
       </c>
-      <c r="M60" s="3"/>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3"/>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>590500</v>
+      </c>
+      <c r="E61" s="3">
         <v>540800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>618800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>679100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>437400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>568200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>435600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>381200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>151800</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>141000</v>
       </c>
-      <c r="M61" s="3"/>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3"/>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>177900</v>
+      </c>
+      <c r="E62" s="3">
         <v>175600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>146300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>169600</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>92200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>110800</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>136900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>137900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>96200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>112900</v>
       </c>
-      <c r="M62" s="3"/>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3"/>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2365,9 +2513,12 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-      <c r="M63" s="3"/>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3"/>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2398,9 +2549,12 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-      <c r="M64" s="3"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2431,42 +2585,48 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-      <c r="M65" s="3"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>935300</v>
+      </c>
+      <c r="E66" s="3">
         <v>874000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>908600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>995800</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>665400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>822100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>696000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>665400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>374900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>369300</v>
       </c>
-      <c r="M66" s="3"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2480,8 +2640,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2512,9 +2673,12 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-      <c r="M68" s="3"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2545,9 +2709,12 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-      <c r="M69" s="3"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2578,9 +2745,12 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-      <c r="M70" s="3"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+      <c r="N70" s="3"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2611,42 +2781,48 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-      <c r="M71" s="3"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>666200</v>
+      </c>
+      <c r="E72" s="3">
         <v>638400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>608200</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>566700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>585300</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>552600</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>512700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>520000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>483400</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>417000</v>
       </c>
-      <c r="M72" s="3"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2677,9 +2853,12 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-      <c r="M73" s="3"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2710,9 +2889,12 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-      <c r="M74" s="3"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2743,42 +2925,48 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-      <c r="M75" s="3"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>649600</v>
+      </c>
+      <c r="E76" s="3">
         <v>597700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>557900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>546700</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>508300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>467900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>489000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>561400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>511800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>475900</v>
       </c>
-      <c r="M76" s="3"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -2809,80 +2997,89 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-      <c r="M77" s="3"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43465</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>42735</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42369</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42004</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>41639</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41274</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>40908</v>
       </c>
-      <c r="M80" s="2"/>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2"/>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>83800</v>
+      </c>
+      <c r="E81" s="3">
         <v>85200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>94200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>34100</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>82300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>89200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>88900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>75500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>78700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>91400</v>
       </c>
-      <c r="M81" s="3"/>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3"/>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -2896,41 +3093,45 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>72200</v>
+      </c>
+      <c r="E83" s="3">
         <v>57700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>61600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>59500</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>44500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>45100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>37300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>38500</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>43100</v>
       </c>
-      <c r="M83" s="3"/>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3"/>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -2961,9 +3162,12 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-      <c r="M84" s="3"/>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3"/>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -2994,9 +3198,12 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-      <c r="M85" s="3"/>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3"/>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3027,9 +3234,12 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-      <c r="M86" s="3"/>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3"/>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3060,9 +3270,12 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-      <c r="M87" s="3"/>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3"/>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3093,42 +3306,48 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-      <c r="M88" s="3"/>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3"/>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>161600</v>
+      </c>
+      <c r="E89" s="3">
         <v>160300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>139100</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>131000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>129700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>144700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>165900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>178100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>174600</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>81500</v>
       </c>
-      <c r="M89" s="3"/>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3"/>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3142,41 +3361,45 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-30100</v>
+      </c>
+      <c r="E91" s="3">
         <v>-28600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-27000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-37200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-27800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-24200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-35100</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-29100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-27200</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-62200</v>
       </c>
-      <c r="M91" s="3"/>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3"/>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3207,9 +3430,12 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-      <c r="M92" s="3"/>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3"/>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3240,42 +3466,48 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-      <c r="M93" s="3"/>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3"/>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-203100</v>
+      </c>
+      <c r="E94" s="3">
         <v>-14800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-27500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-318500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-22400</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-313700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-74500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-253700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-51700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-72100</v>
       </c>
-      <c r="M94" s="3"/>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3"/>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3289,41 +3521,45 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="E96" s="3">
         <v>-54400</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-53200</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-51900</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-49400</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-46900</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-44500</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-39500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-14100</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-10100</v>
       </c>
-      <c r="M96" s="3"/>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3"/>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3354,9 +3590,12 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-      <c r="M97" s="3"/>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3"/>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3387,9 +3626,12 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-      <c r="M98" s="3"/>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3"/>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3420,106 +3662,118 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-      <c r="M99" s="3"/>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3"/>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-135800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-120900</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>179500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-185700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>92400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-39100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>187300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-50600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-18300</v>
       </c>
-      <c r="M100" s="3"/>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3"/>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7500</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-700</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-27200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-34000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>9100</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>2400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-1900</v>
       </c>
-      <c r="M101" s="3"/>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3"/>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>-48300</v>
+      </c>
+      <c r="E102" s="3">
         <v>9200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-13100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-79100</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-103800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>18300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>120800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>74700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-10800</v>
       </c>
-      <c r="M102" s="3"/>
+      <c r="N102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AAII_Financials/Yearly/SWM_YR_FIN.xlsx
+++ b/AAII_Financials/Yearly/SWM_YR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="92">
   <si>
     <t>SWM</t>
   </si>
@@ -295,6 +295,9 @@
   </si>
   <si>
     <t xml:space="preserve">Change In Cash and Cash Equivalents </t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -653,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -662,165 +665,177 @@
     <col min="1" max="1" width="7" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>42735</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>42369</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>42004</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>41639</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>41274</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>40908</v>
       </c>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1440000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1074400</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1022800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1041300</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>982100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>839900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>764100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>794300</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>772800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>778500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>801000</v>
       </c>
-      <c r="N8" s="3"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1109700</v>
+      </c>
+      <c r="E9" s="3">
         <v>766100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>732800</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>762800</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>698700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>582000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>539700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>575500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>520100</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>519000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>562100</v>
       </c>
-      <c r="N9" s="3"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>330300</v>
+      </c>
+      <c r="E10" s="3">
         <v>308300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>290000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>278500</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>283400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>257900</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>224400</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>218800</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>252700</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>259500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>238900</v>
       </c>
-      <c r="N10" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,44 +850,48 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="3">
+        <v>20300</v>
+      </c>
+      <c r="E12" s="3">
         <v>13800</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>13500</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>15200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>17800</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>17500</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>14000</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>15700</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>15300</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>9900</v>
       </c>
-      <c r="M12" s="3">
+      <c r="N12" s="3">
         <v>9300</v>
       </c>
-      <c r="N12" s="3"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>8</v>
       </c>
@@ -906,45 +925,51 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-      <c r="N13" s="3"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="3">
+        <v>18800</v>
+      </c>
+      <c r="E14" s="3">
         <v>13000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3700</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>1700</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>8100</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>25600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>14600</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>13100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>41300</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>21400</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>14000</v>
       </c>
-      <c r="N14" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>10</v>
       </c>
@@ -978,9 +1003,12 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-      <c r="N15" s="3"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -992,80 +1020,87 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D17" s="3">
+        <v>1356700</v>
+      </c>
+      <c r="E17" s="3">
         <v>945600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>888800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>906300</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>853800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>729900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>661100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>688200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>647900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>626800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>682000</v>
       </c>
-      <c r="N17" s="3"/>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3"/>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D18" s="3">
+        <v>83300</v>
+      </c>
+      <c r="E18" s="3">
         <v>128800</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>134000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>135000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>128300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>110000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>103000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>106100</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>124900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>151700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>119000</v>
       </c>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3"/>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>13</v>
       </c>
@@ -1080,188 +1115,204 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D20" s="3">
-        <v>-1000</v>
+        <v>35900</v>
       </c>
       <c r="E20" s="3">
         <v>-1000</v>
       </c>
       <c r="F20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="G20" s="3">
         <v>10000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>25800</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>16000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>11700</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>9300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>5700</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>4600</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>100</v>
       </c>
-      <c r="N20" s="3"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3"/>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="3">
+        <v>211900</v>
+      </c>
+      <c r="E21" s="3">
         <v>200000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>190700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>206600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>213600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>170500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>155700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>160500</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167900</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>194800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>162200</v>
       </c>
-      <c r="N21" s="3"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3"/>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D22" s="3">
+        <v>46100</v>
+      </c>
+      <c r="E22" s="3">
         <v>30500</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>36100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>28200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>52600</v>
       </c>
-      <c r="H22" s="3">
+      <c r="I22" s="3">
         <v>32600</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>9200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>7200</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>2900</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>6700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>5200</v>
       </c>
-      <c r="N22" s="3"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3"/>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="3">
+        <v>73100</v>
+      </c>
+      <c r="E23" s="3">
         <v>97300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>96900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>116800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>101500</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>93400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>105500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>108200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>127700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>149600</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>113900</v>
       </c>
-      <c r="N23" s="3"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3"/>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D24" s="3">
+        <v>-9400</v>
+      </c>
+      <c r="E24" s="3">
         <v>18400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15900</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>22300</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>18200</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>15400</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>21600</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>20500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>53000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>49500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>30800</v>
       </c>
-      <c r="N24" s="3"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3"/>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>19</v>
       </c>
@@ -1295,81 +1346,90 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-      <c r="N25" s="3"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3"/>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D26" s="3">
+        <v>82500</v>
+      </c>
+      <c r="E26" s="3">
         <v>78900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>81000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>94500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>83300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>78000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>83900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>87700</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>74700</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>100100</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>83100</v>
       </c>
-      <c r="N26" s="3"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3"/>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E27" s="3">
         <v>83800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>84500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>82900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>85400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>82300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>90000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>88900</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>77900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>103000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>86600</v>
       </c>
-      <c r="N27" s="3"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3"/>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>22</v>
       </c>
@@ -1403,45 +1463,51 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-      <c r="N28" s="3"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3"/>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="3">
-        <v>0</v>
+      <c r="D29" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>700</v>
       </c>
-      <c r="F29" s="3">
+      <c r="G29" s="3">
         <v>11300</v>
       </c>
-      <c r="G29" s="3">
+      <c r="H29" s="3">
         <v>-51300</v>
       </c>
-      <c r="H29" s="3">
-        <v>0</v>
-      </c>
       <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
         <v>-800</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
       <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
         <v>-2400</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-24300</v>
       </c>
-      <c r="M29" s="3">
+      <c r="N29" s="3">
         <v>4800</v>
       </c>
-      <c r="N29" s="3"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3"/>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>24</v>
       </c>
@@ -1475,9 +1541,12 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-      <c r="N30" s="3"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3"/>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>25</v>
       </c>
@@ -1511,81 +1580,90 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-      <c r="N31" s="3"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3"/>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="3">
-        <v>1000</v>
+        <v>-35900</v>
       </c>
       <c r="E32" s="3">
         <v>1000</v>
       </c>
       <c r="F32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G32" s="3">
         <v>-10000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-25800</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-16000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-11700</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-9300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-5700</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-4600</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-100</v>
       </c>
-      <c r="N32" s="3"/>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3"/>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D33" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E33" s="3">
         <v>83800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>85200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>94200</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>34100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>82300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>89200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>88900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>75500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>78700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>91400</v>
       </c>
-      <c r="N33" s="3"/>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3"/>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>28</v>
       </c>
@@ -1619,86 +1697,95 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-      <c r="N34" s="3"/>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3"/>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D35" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E35" s="3">
         <v>83800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>85200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>94200</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>34100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>82300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>89200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>88900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>75500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>78700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>91400</v>
       </c>
-      <c r="N35" s="3"/>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>42735</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>42369</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>42004</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>41639</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>41274</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>40908</v>
       </c>
-      <c r="N38" s="2"/>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2"/>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>31</v>
       </c>
@@ -1713,8 +1800,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>32</v>
       </c>
@@ -1729,44 +1817,48 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>33</v>
       </c>
       <c r="D41" s="3">
+        <v>74700</v>
+      </c>
+      <c r="E41" s="3">
         <v>54700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>103000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>93800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>106900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>107400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>186500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>290300</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>272000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>151200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>76500</v>
       </c>
-      <c r="N41" s="3"/>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3"/>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>34</v>
       </c>
@@ -1800,261 +1892,285 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3"/>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3"/>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D43" s="3">
+        <v>247600</v>
+      </c>
+      <c r="E43" s="3">
         <v>154400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>150800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>162600</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>148000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>114100</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>118600</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>105000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>225100</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>95000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>113500</v>
       </c>
-      <c r="N43" s="3"/>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3"/>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D44" s="3">
+        <v>259500</v>
+      </c>
+      <c r="E44" s="3">
         <v>179700</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>161400</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>151500</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>155200</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>119400</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>112400</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>108400</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>132800</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>111600</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>113800</v>
       </c>
-      <c r="N44" s="3"/>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3"/>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D45" s="3">
+        <v>12800</v>
+      </c>
+      <c r="E45" s="3">
         <v>7600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>12300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>21300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>23000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>23400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>15700</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>14800</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>24200</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>23200</v>
       </c>
-      <c r="N45" s="3"/>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3"/>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D46" s="3">
+        <v>594600</v>
+      </c>
+      <c r="E46" s="3">
         <v>396400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>427500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>429200</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>433100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>364300</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>444800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>519400</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>537100</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>382000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>327000</v>
       </c>
-      <c r="N46" s="3"/>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3"/>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D47" s="3">
+        <v>64600</v>
+      </c>
+      <c r="E47" s="3">
         <v>59300</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>52400</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>53100</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>70900</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>66300</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>70100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>70300</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>66200</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>65100</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>42600</v>
       </c>
-      <c r="N47" s="3"/>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3"/>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D48" s="3">
+        <v>489000</v>
+      </c>
+      <c r="E48" s="3">
         <v>358800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>351200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>340300</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>361900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>307400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>308100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>362000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>786400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>401400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>428800</v>
       </c>
-      <c r="N48" s="3"/>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3"/>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D49" s="3">
+        <v>1176100</v>
+      </c>
+      <c r="E49" s="3">
         <v>731300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>600500</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>619200</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>645900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>411400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>449700</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>219200</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>208800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>17500</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>29900</v>
       </c>
-      <c r="N49" s="3"/>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3"/>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>42</v>
       </c>
@@ -2088,9 +2204,12 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-      <c r="N50" s="3"/>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3"/>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>43</v>
       </c>
@@ -2124,45 +2243,51 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-      <c r="N51" s="3"/>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3"/>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>44</v>
       </c>
       <c r="D52" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E52" s="3">
         <v>39100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>40100</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>24700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>30700</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>24300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>17300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>14100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>52600</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>20700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>54300</v>
       </c>
-      <c r="N52" s="3"/>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3"/>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>45</v>
       </c>
@@ -2196,45 +2321,51 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-      <c r="N53" s="3"/>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3"/>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>46</v>
       </c>
       <c r="D54" s="3">
+        <v>2420300</v>
+      </c>
+      <c r="E54" s="3">
         <v>1584900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>1471700</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>1466500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>1542500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>1173700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>1290000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>1185000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>1226800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>886700</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>845200</v>
       </c>
-      <c r="N54" s="3"/>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3"/>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>47</v>
       </c>
@@ -2249,8 +2380,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>48</v>
       </c>
@@ -2265,224 +2397,243 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E57" s="3">
         <v>60500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>66400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>65700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>59400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>50300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>49000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>44800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>49400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>45600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>53700</v>
       </c>
-      <c r="N57" s="3"/>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="3">
+        <v>3200</v>
+      </c>
+      <c r="E58" s="3">
         <v>2800</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>1900</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>3300</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>5100</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>3000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>3300</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>2300</v>
-      </c>
-      <c r="K58" s="3">
-        <v>4200</v>
       </c>
       <c r="L58" s="3">
         <v>4200</v>
       </c>
       <c r="M58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="N58" s="3">
         <v>5000</v>
       </c>
-      <c r="N58" s="3"/>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D59" s="3">
+        <v>111900</v>
+      </c>
+      <c r="E59" s="3">
         <v>103600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>89300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>74500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>82600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>82500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>90800</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>76400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>178900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>77100</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>82100</v>
       </c>
-      <c r="N59" s="3"/>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D60" s="3">
+        <v>231100</v>
+      </c>
+      <c r="E60" s="3">
         <v>166900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>157600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>143500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>147100</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>135800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>143100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>123500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>146300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>126900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>140800</v>
       </c>
-      <c r="N60" s="3"/>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3"/>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D61" s="3">
+        <v>1267100</v>
+      </c>
+      <c r="E61" s="3">
         <v>590500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>540800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>618800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>679100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>437400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>568200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>435600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>381200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>151800</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>141000</v>
       </c>
-      <c r="N61" s="3"/>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3"/>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D62" s="3">
+        <v>239900</v>
+      </c>
+      <c r="E62" s="3">
         <v>177900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>175600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>146300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>169600</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>92200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>110800</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>136900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>137900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>96200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>112900</v>
       </c>
-      <c r="N62" s="3"/>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3"/>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>55</v>
       </c>
@@ -2516,9 +2667,12 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-      <c r="N63" s="3"/>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3"/>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>19</v>
       </c>
@@ -2552,9 +2706,12 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-      <c r="N64" s="3"/>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>56</v>
       </c>
@@ -2588,45 +2745,51 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-      <c r="N65" s="3"/>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3"/>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D66" s="3">
+        <v>1738100</v>
+      </c>
+      <c r="E66" s="3">
         <v>935300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>874000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>908600</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>995800</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>665400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>822100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>696000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>665400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>374900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>369300</v>
       </c>
-      <c r="N66" s="3"/>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3"/>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>58</v>
       </c>
@@ -2641,8 +2804,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>59</v>
       </c>
@@ -2676,9 +2840,12 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-      <c r="N68" s="3"/>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3"/>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>60</v>
       </c>
@@ -2712,9 +2879,12 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-      <c r="N69" s="3"/>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3"/>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>61</v>
       </c>
@@ -2748,9 +2918,12 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-      <c r="N70" s="3"/>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3"/>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>62</v>
       </c>
@@ -2784,45 +2957,51 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-      <c r="N71" s="3"/>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3"/>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D72" s="3">
+        <v>696400</v>
+      </c>
+      <c r="E72" s="3">
         <v>666200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>638400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>608200</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>566700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>585300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>552600</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>512700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>520000</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>483400</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>417000</v>
       </c>
-      <c r="N72" s="3"/>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3"/>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>64</v>
       </c>
@@ -2856,9 +3035,12 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-      <c r="N73" s="3"/>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3"/>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>65</v>
       </c>
@@ -2892,9 +3074,12 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-      <c r="N74" s="3"/>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3"/>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>66</v>
       </c>
@@ -2928,45 +3113,51 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-      <c r="N75" s="3"/>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3"/>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>67</v>
       </c>
       <c r="D76" s="3">
+        <v>682200</v>
+      </c>
+      <c r="E76" s="3">
         <v>649600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>597700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>557900</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>546700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>508300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>467900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>489000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>561400</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>511800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>475900</v>
       </c>
-      <c r="N76" s="3"/>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3"/>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>68</v>
       </c>
@@ -3000,86 +3191,95 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-      <c r="N77" s="3"/>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3"/>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>42735</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>42369</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>42004</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>41639</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>41274</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>40908</v>
       </c>
-      <c r="N80" s="2"/>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2"/>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D81" s="3">
+        <v>87800</v>
+      </c>
+      <c r="E81" s="3">
         <v>83800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>85200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>94200</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>34100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>82300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>89200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>88900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>75500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>78700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>91400</v>
       </c>
-      <c r="N81" s="3"/>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3"/>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>70</v>
       </c>
@@ -3094,44 +3294,48 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>71</v>
       </c>
       <c r="D83" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E83" s="3">
         <v>72200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>57700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>61600</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>59500</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>44500</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>41000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>45100</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>37300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>38500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>43100</v>
       </c>
-      <c r="N83" s="3"/>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3"/>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>72</v>
       </c>
@@ -3165,9 +3369,12 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-      <c r="N84" s="3"/>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3"/>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>73</v>
       </c>
@@ -3201,9 +3408,12 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-      <c r="N85" s="3"/>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3"/>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>74</v>
       </c>
@@ -3237,9 +3447,12 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-      <c r="N86" s="3"/>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3"/>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>75</v>
       </c>
@@ -3273,9 +3486,12 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-      <c r="N87" s="3"/>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3"/>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>76</v>
       </c>
@@ -3309,45 +3525,51 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-      <c r="N88" s="3"/>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3"/>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>77</v>
       </c>
       <c r="D89" s="3">
+        <v>58100</v>
+      </c>
+      <c r="E89" s="3">
         <v>161600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>160300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>139100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>131000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>129700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>144700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>165900</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>178100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>174600</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>81500</v>
       </c>
-      <c r="N89" s="3"/>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3"/>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>78</v>
       </c>
@@ -3362,44 +3584,48 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>79</v>
       </c>
       <c r="D91" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E91" s="3">
         <v>-30100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-28600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-27000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-37200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-27800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-24200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-35100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-29100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-27200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-62200</v>
       </c>
-      <c r="N91" s="3"/>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>80</v>
       </c>
@@ -3433,9 +3659,12 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-      <c r="N92" s="3"/>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3"/>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>81</v>
       </c>
@@ -3469,45 +3698,51 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-      <c r="N93" s="3"/>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3"/>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>82</v>
       </c>
       <c r="D94" s="3">
+        <v>-636500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-203100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-14800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-27500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-318500</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-22400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-313700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-74500</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-253700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-51700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72100</v>
       </c>
-      <c r="N94" s="3"/>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3"/>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>83</v>
       </c>
@@ -3522,44 +3757,48 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>84</v>
       </c>
       <c r="D96" s="3">
+        <v>-55300</v>
+      </c>
+      <c r="E96" s="3">
         <v>-55000</v>
       </c>
-      <c r="E96" s="3">
+      <c r="F96" s="3">
         <v>-54400</v>
       </c>
-      <c r="F96" s="3">
+      <c r="G96" s="3">
         <v>-53200</v>
       </c>
-      <c r="G96" s="3">
+      <c r="H96" s="3">
         <v>-51900</v>
       </c>
-      <c r="H96" s="3">
+      <c r="I96" s="3">
         <v>-49400</v>
       </c>
-      <c r="I96" s="3">
+      <c r="J96" s="3">
         <v>-46900</v>
       </c>
-      <c r="J96" s="3">
+      <c r="K96" s="3">
         <v>-44500</v>
       </c>
-      <c r="K96" s="3">
+      <c r="L96" s="3">
         <v>-39500</v>
       </c>
-      <c r="L96" s="3">
+      <c r="M96" s="3">
         <v>-14100</v>
       </c>
-      <c r="M96" s="3">
+      <c r="N96" s="3">
         <v>-10100</v>
       </c>
-      <c r="N96" s="3"/>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3"/>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>85</v>
       </c>
@@ -3593,9 +3832,12 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-      <c r="N97" s="3"/>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3"/>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>86</v>
       </c>
@@ -3629,9 +3871,12 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-      <c r="N98" s="3"/>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3"/>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>87</v>
       </c>
@@ -3665,115 +3910,127 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-      <c r="N99" s="3"/>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3"/>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>88</v>
       </c>
       <c r="D100" s="3">
+        <v>599900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-8600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-135800</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-120900</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>179500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-185700</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>92400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-39100</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>187300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-50600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-18300</v>
       </c>
-      <c r="N100" s="3"/>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3"/>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D101" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-3800</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-700</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-27200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-34000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>9100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>2400</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1900</v>
       </c>
-      <c r="N101" s="3"/>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3"/>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D102" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-48300</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>9200</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-13100</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-79100</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-103800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>18300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>120800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>74700</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-10800</v>
       </c>
-      <c r="N102" s="3"/>
+      <c r="O102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
